--- a/海运最新链接.xlsx
+++ b/海运最新链接.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="787">
   <si>
     <t>AA</t>
   </si>
@@ -2446,6 +2446,9 @@
     <t>http://www.antong56.com/biz/tracking</t>
   </si>
   <si>
+    <t>返回json不能跳转到结果页</t>
+  </si>
+  <si>
     <t>CUL</t>
   </si>
   <si>
@@ -2654,6 +2657,9 @@
     <t>http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=HAL&amp;companyid=0&amp;lang=ZH-CN</t>
   </si>
   <si>
+    <t>不能到结果页返回json数据</t>
+  </si>
+  <si>
     <t>HATSU</t>
   </si>
   <si>
@@ -2680,6 +2686,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>提单号：</t>
     </r>
     <r>
@@ -2696,7 +2708,7 @@
     <t>http://www.hmm21.com/cms/business/ebiz/trackTrace/trackTrace/index.jsp?type=1&amp;number=&amp;is_quick=Y&amp;quick_params=</t>
   </si>
   <si>
-    <t>加载不出来</t>
+    <t>修改了链接http://www.hmm21.com/cms/company/engn/index.jsp</t>
   </si>
   <si>
     <t>HPL</t>
@@ -2817,6 +2829,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>提单号：</t>
     </r>
     <r>
@@ -3135,6 +3152,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>提单号</t>
     </r>
     <r>
@@ -3384,7 +3407,10 @@
     <t>提单号：SNL9HKCL000370</t>
   </si>
   <si>
-    <t>http://ebusiness.sinolines.com.cn/snlebusinessb/TrackingByBlno.aspx</t>
+    <t>http://ebusiness.sinolines.com.cn/snlebusinessb/TrackingByBlno.aspx  修改了链接</t>
+  </si>
+  <si>
+    <t>http://ebusiness.sinolines.com.cn/SnlEbusiness/TrackingCargoByBlno.aspx</t>
   </si>
   <si>
     <t>SITC</t>
@@ -3451,6 +3477,12 @@
     <t>http://afsys.tslines.com:8081/CargoTracking/CargoTrackingBL</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.tslines.com/EN/ </t>
+  </si>
+  <si>
+    <t>修改链接</t>
+  </si>
+  <si>
     <t>UASC</t>
   </si>
   <si>
@@ -3569,6 +3601,12 @@
   </si>
   <si>
     <t>http://www.hltsz.com.cn/index.php</t>
+  </si>
+  <si>
+    <t>MOL</t>
+  </si>
+  <si>
+    <t>PHL</t>
   </si>
 </sst>
 </file>
@@ -3576,10 +3614,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3708,45 +3746,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -3755,46 +3754,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3815,6 +3782,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3823,7 +3837,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3867,7 +3905,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3897,19 +4037,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3921,31 +4061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3957,97 +4079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4061,17 +4099,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4085,17 +4123,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4117,6 +4149,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -4125,39 +4196,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4166,145 +4204,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4366,7 +4404,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6850,7 +6888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" s="19" customFormat="1" ht="14.25" spans="1:10">
+    <row r="107" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A107" s="48" t="s">
         <v>529</v>
       </c>
@@ -6860,10 +6898,10 @@
       <c r="C107" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="D107" s="19" t="s">
+      <c r="D107" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E107" s="1" t="s">
         <v>532</v>
       </c>
       <c r="J107" s="50" t="s">
@@ -7006,10 +7044,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7080,7 +7118,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:6">
+    <row r="5" ht="16" customHeight="1" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7097,21 +7135,24 @@
       <c r="F5" s="11" t="s">
         <v>550</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:6">
@@ -7119,17 +7160,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:6">
@@ -7137,17 +7178,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:6">
@@ -7155,17 +7196,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:6">
@@ -7173,17 +7214,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:6">
@@ -7191,17 +7232,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:6">
@@ -7209,17 +7250,17 @@
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:6">
@@ -7227,15 +7268,15 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:6">
@@ -7243,15 +7284,15 @@
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:6">
@@ -7259,17 +7300,17 @@
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:6">
@@ -7277,17 +7318,17 @@
         <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:6">
@@ -7295,17 +7336,17 @@
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:6">
@@ -7313,35 +7354,38 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="1" spans="1:6">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="19" ht="16" customHeight="1" spans="1:7">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>602</v>
+        <v>603</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:6">
@@ -7349,15 +7393,15 @@
         <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:6">
@@ -7365,17 +7409,17 @@
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
@@ -7383,20 +7427,20 @@
         <v>22</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:6">
@@ -7404,17 +7448,17 @@
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:6">
@@ -7422,17 +7466,17 @@
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:6">
@@ -7440,17 +7484,17 @@
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="10" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:6">
@@ -7458,15 +7502,15 @@
         <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:6">
@@ -7474,17 +7518,17 @@
         <v>27</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="10" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:6">
@@ -7492,17 +7536,17 @@
         <v>28</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="17" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:6">
@@ -7510,17 +7554,17 @@
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:6">
@@ -7528,51 +7572,57 @@
         <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="31" ht="16" customHeight="1" spans="1:6">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="1" spans="1:7">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="10" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="32" ht="16" customHeight="1" spans="1:6">
+        <v>649</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="32" ht="16" customHeight="1" spans="1:7">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>651</v>
+        <v>653</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:6">
@@ -7580,17 +7630,17 @@
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:6">
@@ -7598,17 +7648,17 @@
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:6">
@@ -7616,17 +7666,17 @@
         <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="10" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:6">
@@ -7634,15 +7684,15 @@
         <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
       <c r="F36" s="11" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:6">
@@ -7650,15 +7700,15 @@
         <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:6">
@@ -7666,17 +7716,17 @@
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="10" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:6">
@@ -7684,17 +7734,17 @@
         <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="10" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
@@ -7702,18 +7752,18 @@
         <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="18"/>
       <c r="F40" s="16" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:6">
@@ -7721,17 +7771,17 @@
         <v>41</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="10" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
@@ -7739,23 +7789,23 @@
         <v>42</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>691</v>
+        <v>692</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1" spans="1:6">
@@ -7763,17 +7813,17 @@
         <v>43</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="10" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1" spans="1:6">
@@ -7781,17 +7831,17 @@
         <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="10" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="45" ht="16" customHeight="1" spans="1:6">
@@ -7799,17 +7849,17 @@
         <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="10" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:6">
@@ -7817,17 +7867,17 @@
         <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="10" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:6">
@@ -7835,17 +7885,17 @@
         <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="10" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="48" ht="16" customHeight="1" spans="1:6">
@@ -7853,17 +7903,17 @@
         <v>48</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="49" ht="16" customHeight="1" spans="1:6">
@@ -7871,17 +7921,17 @@
         <v>49</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="50" ht="16" customHeight="1" spans="1:6">
@@ -7889,33 +7939,36 @@
         <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="51" ht="16" customHeight="1" spans="1:6">
-      <c r="A51">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
+      <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10" t="s">
+      <c r="B51" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="C51" s="13" t="s">
         <v>725</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="52" ht="16" customHeight="1" spans="1:6">
@@ -7923,17 +7976,17 @@
         <v>52</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="10" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="53" ht="16" customHeight="1" spans="1:6">
@@ -7941,17 +7994,17 @@
         <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="10" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="54" ht="16" customHeight="1" spans="1:6">
@@ -7959,17 +8012,17 @@
         <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="10" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="55" ht="16" customHeight="1" spans="1:6">
@@ -7977,15 +8030,15 @@
         <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="56" ht="16" customHeight="1" spans="1:6">
@@ -7993,33 +8046,39 @@
         <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="57" ht="16" customHeight="1" spans="1:6">
-      <c r="A57">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
+      <c r="A57" s="1">
         <v>58</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="F57" s="11" t="s">
+      <c r="B57" s="12" t="s">
         <v>746</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="58" ht="16" customHeight="1" spans="1:6">
@@ -8027,17 +8086,17 @@
         <v>59</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="10" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" ht="16" customHeight="1" spans="1:6">
@@ -8045,17 +8104,17 @@
         <v>60</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="10" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="60" ht="16" customHeight="1" spans="1:6">
@@ -8063,17 +8122,17 @@
         <v>62</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="10" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="61" ht="16" customHeight="1" spans="1:6">
@@ -8081,17 +8140,17 @@
         <v>63</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="10" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="62" ht="16" customHeight="1" spans="1:6">
@@ -8099,17 +8158,17 @@
         <v>64</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="10" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
@@ -8117,23 +8176,23 @@
         <v>65</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="18" t="s">
-        <v>768</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>769</v>
+        <v>773</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>691</v>
+        <v>692</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="64" ht="16" customHeight="1" spans="1:6">
@@ -8141,17 +8200,17 @@
         <v>66</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="10" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="65" ht="16" customHeight="1" spans="1:6">
@@ -8159,15 +8218,15 @@
         <v>68</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="10"/>
       <c r="F65" s="11" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="66" ht="16" customHeight="1" spans="1:6">
@@ -8175,16 +8234,35 @@
         <v>69</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="10"/>
       <c r="F66" s="11" t="s">
-        <v>779</v>
-      </c>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:7">
+      <c r="B67" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:7">
+      <c r="B68" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="6:6">
+      <c r="F69" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -8289,7 +8367,7 @@
     <hyperlink ref="F47" r:id="rId28" display="http://www.rclgroup.com/Home#cargo" tooltip="http://www.rclgroup.com/Home#cargo"/>
     <hyperlink ref="F46" r:id="rId29" display="https://www.pilship.com/en-our-track-and-trace-pil-pacific-international-lines/120.html" tooltip="https://www.pilship.com/en-our-track-and-trace-pil-pacific-international-lines/120.html"/>
     <hyperlink ref="F48" r:id="rId30" display="https://www.safmarine.com/" tooltip="https://www.safmarine.com/"/>
-    <hyperlink ref="F51" r:id="rId31" display="http://ebusiness.sinolines.com.cn/snlebusinessb/TrackingByBlno.aspx" tooltip="http://ebusiness.sinolines.com.cn/snlebusinessb/TrackingByBlno.aspx"/>
+    <hyperlink ref="F51" r:id="rId31" display="http://ebusiness.sinolines.com.cn/snlebusinessb/TrackingByBlno.aspx  修改了链接" tooltip="http://ebusiness.sinolines.com.cn/snlebusinessb/TrackingByBlno.aspx  修改了链接"/>
     <hyperlink ref="F52" r:id="rId32" display="http://www.sitcline.com/login.jsp" tooltip="http://www.sitcline.com/login.jsp"/>
     <hyperlink ref="F53" r:id="rId33" display="https://esvc.smlines.com/smline/CUP_HOM_3301.do" tooltip="https://esvc.smlines.com/smline/CUP_HOM_3301.do"/>
     <hyperlink ref="F57" r:id="rId34" display="http://afsys.tslines.com:8081/CargoTracking/CargoTrackingBL" tooltip="http://afsys.tslines.com:8081/CargoTracking/CargoTrackingBL"/>
@@ -8322,6 +8400,9 @@
     <hyperlink ref="F66" r:id="rId59" display="http://www.hltsz.com.cn/index.php" tooltip="http://www.hltsz.com.cn/index.php"/>
     <hyperlink ref="F64" r:id="rId60" display="http://www.yundangnet.com/redirectPage?blno=NOSNB9TZ36019&amp;ctnrno=&amp;carrier=NOSCO&amp;companyid=0&amp;tag=sea"/>
     <hyperlink ref="F63" r:id="rId61" display="http://www.zhonggushipping.com/index.jsp" tooltip="http://www.zhonggushipping.com/index.jsp"/>
+    <hyperlink ref="G51" r:id="rId62" display="http://ebusiness.sinolines.com.cn/SnlEbusiness/TrackingCargoByBlno.aspx"/>
+    <hyperlink ref="F69" r:id="rId63" tooltip="http://www.tslines.com/EN/ "/>
+    <hyperlink ref="G57" r:id="rId63" display="http://www.tslines.com/EN/ "/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/海运最新链接.xlsx
+++ b/海运最新链接.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="789">
   <si>
     <t>AA</t>
   </si>
@@ -2411,6 +2411,9 @@
     <t>https://www.alianca.com.br/alianca/en/alianca/ecommerce_alianca/track_trace_alianca/index.html?lang=en</t>
   </si>
   <si>
+    <t>不能到结果页</t>
+  </si>
+  <si>
     <t>ACL</t>
   </si>
   <si>
@@ -2607,6 +2610,9 @@
   </si>
   <si>
     <t>https://www.fesco.ru/en/</t>
+  </si>
+  <si>
+    <t>修改了链接https://www.fesco.ru/en/clients/tracking/</t>
   </si>
   <si>
     <t>GSL</t>
@@ -3614,10 +3620,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3740,6 +3746,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3748,20 +3776,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3781,6 +3795,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -3789,31 +3819,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3828,10 +3834,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3846,22 +3868,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3905,7 +3911,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3917,13 +3941,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3935,19 +3965,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3965,7 +4001,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3977,91 +4079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4077,18 +4095,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -4096,6 +4102,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4110,6 +4136,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4133,30 +4189,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4170,32 +4202,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4204,10 +4210,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4216,133 +4222,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4593,6 +4599,49 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>408305</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="LX~I[CKKLT(HUXHH7FANQ2Y"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14000480" y="1132205"/>
+          <a:ext cx="9431020" cy="2259965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7046,8 +7095,8 @@
   <sheetPr/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7066,7 +7115,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" ht="16" customHeight="1" spans="1:6">
+    <row r="2" ht="16" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7083,21 +7132,24 @@
       <c r="F2" s="11" t="s">
         <v>539</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:6">
@@ -7105,17 +7157,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:7">
@@ -7123,20 +7175,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:6">
@@ -7144,33 +7196,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:6">
@@ -7178,17 +7233,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:6">
@@ -7196,17 +7251,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:6">
@@ -7214,17 +7269,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:6">
@@ -7232,17 +7287,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:6">
@@ -7250,17 +7305,17 @@
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:6">
@@ -7268,15 +7323,15 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:6">
@@ -7284,15 +7339,15 @@
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:6">
@@ -7300,17 +7355,17 @@
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:6">
@@ -7318,35 +7373,38 @@
         <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1" spans="1:6">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1" spans="1:7">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>595</v>
+        <v>596</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:6">
@@ -7354,17 +7412,17 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:7">
@@ -7372,20 +7430,20 @@
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:6">
@@ -7393,33 +7451,36 @@
         <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="21" ht="16" customHeight="1" spans="1:6">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="1" spans="1:7">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
@@ -7427,20 +7488,20 @@
         <v>22</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:6">
@@ -7448,17 +7509,17 @@
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:6">
@@ -7466,17 +7527,17 @@
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:6">
@@ -7484,17 +7545,17 @@
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="10" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:6">
@@ -7502,15 +7563,15 @@
         <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:6">
@@ -7518,17 +7579,17 @@
         <v>27</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="10" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:6">
@@ -7536,17 +7597,17 @@
         <v>28</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="17" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:6">
@@ -7554,17 +7615,17 @@
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="10" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:6">
@@ -7572,15 +7633,15 @@
         <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:7">
@@ -7588,20 +7649,20 @@
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="10" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:7">
@@ -7609,20 +7670,20 @@
         <v>32</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:6">
@@ -7630,17 +7691,17 @@
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:6">
@@ -7648,17 +7709,17 @@
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:6">
@@ -7666,17 +7727,17 @@
         <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="10" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:6">
@@ -7684,15 +7745,15 @@
         <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
       <c r="F36" s="11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:6">
@@ -7700,15 +7761,15 @@
         <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:6">
@@ -7716,17 +7777,17 @@
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="10" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:6">
@@ -7734,17 +7795,17 @@
         <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="10" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
@@ -7752,18 +7813,18 @@
         <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="18"/>
       <c r="F40" s="16" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:6">
@@ -7771,17 +7832,17 @@
         <v>41</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="10" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
@@ -7789,23 +7850,23 @@
         <v>42</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1" spans="1:6">
@@ -7813,17 +7874,17 @@
         <v>43</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="10" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1" spans="1:6">
@@ -7831,17 +7892,17 @@
         <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="10" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="45" ht="16" customHeight="1" spans="1:6">
@@ -7849,17 +7910,17 @@
         <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="10" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:6">
@@ -7867,17 +7928,17 @@
         <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="10" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:6">
@@ -7885,17 +7946,17 @@
         <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="10" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="48" ht="16" customHeight="1" spans="1:6">
@@ -7903,17 +7964,17 @@
         <v>48</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="10" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="49" ht="16" customHeight="1" spans="1:6">
@@ -7921,17 +7982,17 @@
         <v>49</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="10" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="50" ht="16" customHeight="1" spans="1:6">
@@ -7939,15 +8000,15 @@
         <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
@@ -7955,20 +8016,20 @@
         <v>51</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="18" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="52" ht="16" customHeight="1" spans="1:6">
@@ -7976,17 +8037,17 @@
         <v>52</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="10" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" ht="16" customHeight="1" spans="1:6">
@@ -7994,17 +8055,17 @@
         <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="10" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="54" ht="16" customHeight="1" spans="1:6">
@@ -8012,17 +8073,17 @@
         <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="10" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="55" ht="16" customHeight="1" spans="1:6">
@@ -8030,15 +8091,15 @@
         <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="56" ht="16" customHeight="1" spans="1:6">
@@ -8046,15 +8107,15 @@
         <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
@@ -8062,23 +8123,23 @@
         <v>58</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="18" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="58" ht="16" customHeight="1" spans="1:6">
@@ -8086,17 +8147,17 @@
         <v>59</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="10" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" ht="16" customHeight="1" spans="1:6">
@@ -8104,17 +8165,17 @@
         <v>60</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="10" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="60" ht="16" customHeight="1" spans="1:6">
@@ -8122,17 +8183,17 @@
         <v>62</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="10" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="61" ht="16" customHeight="1" spans="1:6">
@@ -8140,17 +8201,17 @@
         <v>63</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="10" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="62" ht="16" customHeight="1" spans="1:6">
@@ -8158,17 +8219,17 @@
         <v>64</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="10" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
@@ -8176,23 +8237,23 @@
         <v>65</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="18" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="64" ht="16" customHeight="1" spans="1:6">
@@ -8200,17 +8261,17 @@
         <v>66</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="10" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="65" ht="16" customHeight="1" spans="1:6">
@@ -8218,15 +8279,15 @@
         <v>68</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="10"/>
       <c r="F65" s="11" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="66" ht="16" customHeight="1" spans="1:6">
@@ -8234,31 +8295,31 @@
         <v>69</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="10"/>
       <c r="F66" s="11" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:7">
       <c r="B67" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:7">
       <c r="B68" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="6:6">
@@ -8334,77 +8395,78 @@
     <mergeCell ref="C66:D66"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C47" r:id="rId1" display="宏海箱运" tooltip="http://www.rclgroup.com/"/>
-    <hyperlink ref="F2" r:id="rId2" display="https://www.alianca.com.br/alianca/en/alianca/ecommerce_alianca/track_trace_alianca/index.html?lang=en" tooltip="https://www.alianca.com.br/alianca/en/alianca/ecommerce_alianca/track_trace_alianca/index.html?lang=en"/>
-    <hyperlink ref="F4" r:id="rId3" display="https://www.apl.com/ebusiness/tracking" tooltip="https://www.apl.com/ebusiness/tracking"/>
-    <hyperlink ref="F5" r:id="rId4" display="http://www.antong56.com/biz/tracking" tooltip="http://www.antong56.com/biz/tracking"/>
-    <hyperlink ref="F7" r:id="rId5" display="https://www.hamburgsud-line.com/liner/en/liner_services/ecommerce/track_trace/index.html" tooltip="https://www.hamburgsud-line.com/liner/en/liner_services/ecommerce/track_trace/index.html"/>
-    <hyperlink ref="F8" r:id="rId6" display="http://www.ckline.co.kr/english/main/main.ck" tooltip="http://www.ckline.co.kr/english/main/main.ck"/>
-    <hyperlink ref="F9" r:id="rId7" display="https://www.cma-cgm.com/ebusiness/tracking" tooltip="https://www.cma-cgm.com/ebusiness/tracking"/>
-    <hyperlink ref="F10" r:id="rId8" display="http://www.cnc-ebusiness.com/ebusiness/tracking" tooltip="http://www.cnc-ebusiness.com/ebusiness/tracking"/>
-    <hyperlink ref="F11" r:id="rId9" display="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=COSCO&amp;companyid=0&amp;lang=ZH-CN" tooltip="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=COSCO&amp;companyid=0&amp;lang=ZH-CN"/>
-    <hyperlink ref="F12" r:id="rId7" display="https://www.cma-cgm.com/ebusiness/tracking" tooltip="https://www.cma-cgm.com/ebusiness/tracking"/>
-    <hyperlink ref="F15" r:id="rId10" display="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=EMC&amp;companyid=0&amp;lang=ZH-CN" tooltip="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=EMC&amp;companyid=0&amp;lang=ZH-CN"/>
-    <hyperlink ref="F16" r:id="rId11" display="http://www.emiratesline.com/zh_CN/cargo-tracking/?ctid=" tooltip="http://www.emiratesline.com/zh_CN/cargo-tracking/?ctid="/>
-    <hyperlink ref="F18" r:id="rId12" display="https://www.shipcont.com/CCM.aspx?hidSearch=true&amp;hidFromHomePage=false&amp;hidSearchType=1&amp;id=166&amp;l=4&amp;textContainerNumber=" tooltip="https://www.shipcont.com/CCM.aspx?hidSearch=true&amp;hidFromHomePage=false&amp;hidSearchType=1&amp;id=166&amp;l=4&amp;textContainerNumber="/>
-    <hyperlink ref="F21" r:id="rId5" display="https://www.hamburgsud-line.com/liner/en/liner_services/ecommerce/track_trace/index.html" tooltip="https://www.hamburgsud-line.com/liner/en/liner_services/ecommerce/track_trace/index.html"/>
-    <hyperlink ref="F22" r:id="rId13" display="http://www.hmm21.com/cms/business/ebiz/trackTrace/trackTrace/index.jsp?type=1&amp;number=&amp;is_quick=Y&amp;quick_params=" tooltip="http://www.hmm21.com/cms/business/ebiz/trackTrace/trackTrace/index.jsp?type=1&amp;number=&amp;is_quick=Y&amp;quick_params="/>
-    <hyperlink ref="F23" r:id="rId14" display="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno=" tooltip="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno="/>
-    <hyperlink ref="F24" r:id="rId15" display="http://www.interasia.cc/content/c_service/cargo_tracking.aspx?SiteID=1" tooltip="http://www.interasia.cc/content/c_service/cargo_tracking.aspx?SiteID=1"/>
-    <hyperlink ref="F25" r:id="rId16" display="http://ejj.jjshipping.cn/cargosearch" tooltip="http://ejj.jjshipping.cn/cargosearch"/>
-    <hyperlink ref="F28" r:id="rId17" display="https://ecomm.one-line.com/ecom/CUP_HOM_3301.do?sessLocale=en?sessLocale=en" tooltip="https://ecomm.one-line.com/ecom/CUP_HOM_3301.do?sessLocale=en?sessLocale=en"/>
-    <hyperlink ref="F29" r:id="rId18" display="http://www.ekmtc.com/" tooltip="http://www.ekmtc.com/"/>
-    <hyperlink ref="F32" r:id="rId19" display="https://www.matson.com/shipment-tracking.html" tooltip="https://www.matson.com/shipment-tracking.html"/>
-    <hyperlink ref="F33" r:id="rId20" display="https://my.mcc.com.sg/tracking/#tracking" tooltip="https://my.mcc.com.sg/tracking/#tracking"/>
-    <hyperlink ref="F34" r:id="rId21" display="https://www.msc.com/aus" tooltip="https://www.msc.com/aus"/>
-    <hyperlink ref="F35" r:id="rId22" display="https://www.maersk.com/" tooltip="https://www.maersk.com/"/>
-    <hyperlink ref="F38" r:id="rId23" display="https://www.niledutch.com/en/schedules-tracking/track-your-container/" tooltip="https://www.niledutch.com/en/schedules-tracking/track-your-container/"/>
-    <hyperlink ref="F39" r:id="rId24" display="https://ebiz.swirecnco.com/vgm/TrackAndTrace" tooltip="https://ebiz.swirecnco.com/vgm/TrackAndTrace"/>
-    <hyperlink ref="F41" r:id="rId25" display="http://www.namsung.co.kr/eng/biz/eService/selectCargoTrace.do" tooltip="http://www.namsung.co.kr/eng/biz/eService/selectCargoTrace.do"/>
-    <hyperlink ref="F42" r:id="rId26" display="https://www.nykline.com/ecom/CUP_HOM_3000.do?redir=Y" tooltip="https://www.nykline.com/ecom/CUP_HOM_3000.do?redir=Y"/>
-    <hyperlink ref="F43" r:id="rId17" display="https://ecomm.one-line.com/ecom/CUP_HOM_3301.do?sessLocale=en?sessLocale=en" tooltip="https://ecomm.one-line.com/ecom/CUP_HOM_3301.do?sessLocale=en?sessLocale=en"/>
-    <hyperlink ref="F44" r:id="rId27" display="https://www.oocl.com/schi/ourservices/eservices/cargotracking/Pages/CargoTracking.aspx" tooltip="https://www.oocl.com/schi/ourservices/eservices/cargotracking/Pages/CargoTracking.aspx"/>
-    <hyperlink ref="F47" r:id="rId28" display="http://www.rclgroup.com/Home#cargo" tooltip="http://www.rclgroup.com/Home#cargo"/>
-    <hyperlink ref="F46" r:id="rId29" display="https://www.pilship.com/en-our-track-and-trace-pil-pacific-international-lines/120.html" tooltip="https://www.pilship.com/en-our-track-and-trace-pil-pacific-international-lines/120.html"/>
-    <hyperlink ref="F48" r:id="rId30" display="https://www.safmarine.com/" tooltip="https://www.safmarine.com/"/>
-    <hyperlink ref="F51" r:id="rId31" display="http://ebusiness.sinolines.com.cn/snlebusinessb/TrackingByBlno.aspx  修改了链接" tooltip="http://ebusiness.sinolines.com.cn/snlebusinessb/TrackingByBlno.aspx  修改了链接"/>
-    <hyperlink ref="F52" r:id="rId32" display="http://www.sitcline.com/login.jsp" tooltip="http://www.sitcline.com/login.jsp"/>
-    <hyperlink ref="F53" r:id="rId33" display="https://esvc.smlines.com/smline/CUP_HOM_3301.do" tooltip="https://esvc.smlines.com/smline/CUP_HOM_3301.do"/>
-    <hyperlink ref="F57" r:id="rId34" display="http://afsys.tslines.com:8081/CargoTracking/CargoTrackingBL" tooltip="http://afsys.tslines.com:8081/CargoTracking/CargoTrackingBL"/>
-    <hyperlink ref="F58" r:id="rId14" display="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno=" tooltip="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno="/>
-    <hyperlink ref="F60" r:id="rId35" display="https://www.wanhai.com/views/cargoTrack/CargoTrack.xhtml" tooltip="https://www.wanhai.com/views/cargoTrack/CargoTrack.xhtml"/>
-    <hyperlink ref="F61" r:id="rId36" display="https://o-www.yangming.com/" tooltip="https://o-www.yangming.com/"/>
-    <hyperlink ref="F62" r:id="rId37" display="https://www.zimchina.com/tools/track-a-shipment?consnumber=" tooltip="https://www.zimchina.com/tools/track-a-shipment?consnumber="/>
-    <hyperlink ref="F19" r:id="rId38" display="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=HAL&amp;companyid=0&amp;lang=ZH-CN" tooltip="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=HAL&amp;companyid=0&amp;lang=ZH-CN"/>
-    <hyperlink ref="F14" r:id="rId39" display="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=DYS&amp;companyid=0&amp;lang=ZH-CN" tooltip="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=DYS&amp;companyid=0&amp;lang=ZH-CN"/>
-    <hyperlink ref="F27" r:id="rId40" display="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=KKC&amp;companyid=0&amp;lang=ZH-CN" tooltip="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=KKC&amp;companyid=0&amp;lang=ZH-CN"/>
-    <hyperlink ref="F31" r:id="rId41" display="https://www.mellship.com/Track" tooltip="https://www.mellship.com/Track"/>
-    <hyperlink ref="F45" r:id="rId42" display="http://www.pancon.co.kr/pan/pageLink.pcl?link=index" tooltip="http://www.pancon.co.kr/pan/pageLink.pcl?link=index"/>
-    <hyperlink ref="F54" r:id="rId43" display="http://container.panocean.com/HP2401/hp2401List.stx" tooltip="http://container.panocean.com/HP2401/hp2401List.stx"/>
-    <hyperlink ref="F17" r:id="rId44" display="https://www.fesco.ru/en/" tooltip="https://www.fesco.ru/en/"/>
-    <hyperlink ref="F13" r:id="rId45" display="http://korea.djship.co.kr/dj/ui/cn/support/sub3_5_0.jsp?PROGRAM_ID=sub3_5" tooltip="http://korea.djship.co.kr/dj/ui/cn/support/sub3_5_0.jsp?PROGRAM_ID=sub3_5"/>
-    <hyperlink ref="F3" r:id="rId46" display="http://www.aclcargo.com/trackCargo.php" tooltip="http://www.aclcargo.com/trackCargo.php"/>
-    <hyperlink ref="F6" r:id="rId47" display="https://www.culines.com/" tooltip="https://www.culines.com/"/>
-    <hyperlink ref="F20" r:id="rId48" display="https://www.master-agency.com.cn/" tooltip="https://www.master-agency.com.cn/"/>
-    <hyperlink ref="F26" r:id="rId49" display="http://www.kanway.tw/KW_ITRI/pages/SeaPublicSearch.aspx?tv=005" tooltip="http://www.kanway.tw/KW_ITRI/pages/SeaPublicSearch.aspx?tv=005"/>
-    <hyperlink ref="F30" r:id="rId50" display="https://www.shipmentlink.com/servlet/TDB1_CargoTracking.do" tooltip="https://www.shipmentlink.com/servlet/TDB1_CargoTracking.do"/>
-    <hyperlink ref="F37" r:id="rId51" display="https://www.hapag-lloyd.com/en/home.html" tooltip="https://www.hapag-lloyd.com/en/home.html"/>
-    <hyperlink ref="F36" r:id="rId52" display="http://www.mssco.net/Eip/Svc/wfCargoTracking.aspx" tooltip="http://www.mssco.net/Eip/Svc/wfCargoTracking.aspx"/>
-    <hyperlink ref="F40" r:id="rId53" display="https://www.bahri.sa/Online-Services/Tracking.aspx?lang=en-US" tooltip="https://www.bahri.sa/Online-Services/Tracking.aspx?lang=en-US"/>
-    <hyperlink ref="F49" r:id="rId54" display="http://www.sinokor.co.kr/" tooltip="http://www.sinokor.co.kr/"/>
-    <hyperlink ref="F50" r:id="rId55" display="https://my.sealand.com/" tooltip="https://my.sealand.com/"/>
-    <hyperlink ref="F55" r:id="rId56" display="http://tassgroup.com/php/schedule_tracking.php?contentid=MjUw&amp;cnt_supm_id=MTQ3&amp;category_name=Customer%20Zone" tooltip="http://tassgroup.com/php/schedule_tracking.php?contentid=MjUw&amp;cnt_supm_id=MTQ3&amp;category_name=Customer%20Zone"/>
-    <hyperlink ref="F56" r:id="rId14" display="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno=" tooltip="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno="/>
-    <hyperlink ref="F59" r:id="rId57" display="http://www.anl.com.au/" tooltip="http://www.anl.com.au/"/>
-    <hyperlink ref="F65" r:id="rId58" display="http://www.hasco.com.cn/" tooltip="http://www.hasco.com.cn/"/>
-    <hyperlink ref="F66" r:id="rId59" display="http://www.hltsz.com.cn/index.php" tooltip="http://www.hltsz.com.cn/index.php"/>
-    <hyperlink ref="F64" r:id="rId60" display="http://www.yundangnet.com/redirectPage?blno=NOSNB9TZ36019&amp;ctnrno=&amp;carrier=NOSCO&amp;companyid=0&amp;tag=sea"/>
-    <hyperlink ref="F63" r:id="rId61" display="http://www.zhonggushipping.com/index.jsp" tooltip="http://www.zhonggushipping.com/index.jsp"/>
-    <hyperlink ref="G51" r:id="rId62" display="http://ebusiness.sinolines.com.cn/SnlEbusiness/TrackingCargoByBlno.aspx"/>
-    <hyperlink ref="F69" r:id="rId63" tooltip="http://www.tslines.com/EN/ "/>
-    <hyperlink ref="G57" r:id="rId63" display="http://www.tslines.com/EN/ "/>
+    <hyperlink ref="C47" r:id="rId2" display="宏海箱运" tooltip="http://www.rclgroup.com/"/>
+    <hyperlink ref="F2" r:id="rId3" display="https://www.alianca.com.br/alianca/en/alianca/ecommerce_alianca/track_trace_alianca/index.html?lang=en" tooltip="https://www.alianca.com.br/alianca/en/alianca/ecommerce_alianca/track_trace_alianca/index.html?lang=en"/>
+    <hyperlink ref="F4" r:id="rId4" display="https://www.apl.com/ebusiness/tracking" tooltip="https://www.apl.com/ebusiness/tracking"/>
+    <hyperlink ref="F5" r:id="rId5" display="http://www.antong56.com/biz/tracking" tooltip="http://www.antong56.com/biz/tracking"/>
+    <hyperlink ref="F7" r:id="rId6" display="https://www.hamburgsud-line.com/liner/en/liner_services/ecommerce/track_trace/index.html" tooltip="https://www.hamburgsud-line.com/liner/en/liner_services/ecommerce/track_trace/index.html"/>
+    <hyperlink ref="F8" r:id="rId7" display="http://www.ckline.co.kr/english/main/main.ck" tooltip="http://www.ckline.co.kr/english/main/main.ck"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://www.cma-cgm.com/ebusiness/tracking" tooltip="https://www.cma-cgm.com/ebusiness/tracking"/>
+    <hyperlink ref="F10" r:id="rId9" display="http://www.cnc-ebusiness.com/ebusiness/tracking" tooltip="http://www.cnc-ebusiness.com/ebusiness/tracking"/>
+    <hyperlink ref="F11" r:id="rId10" display="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=COSCO&amp;companyid=0&amp;lang=ZH-CN" tooltip="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=COSCO&amp;companyid=0&amp;lang=ZH-CN"/>
+    <hyperlink ref="F12" r:id="rId8" display="https://www.cma-cgm.com/ebusiness/tracking" tooltip="https://www.cma-cgm.com/ebusiness/tracking"/>
+    <hyperlink ref="F15" r:id="rId11" display="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=EMC&amp;companyid=0&amp;lang=ZH-CN" tooltip="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=EMC&amp;companyid=0&amp;lang=ZH-CN"/>
+    <hyperlink ref="F16" r:id="rId12" display="http://www.emiratesline.com/zh_CN/cargo-tracking/?ctid=" tooltip="http://www.emiratesline.com/zh_CN/cargo-tracking/?ctid="/>
+    <hyperlink ref="F18" r:id="rId13" display="https://www.shipcont.com/CCM.aspx?hidSearch=true&amp;hidFromHomePage=false&amp;hidSearchType=1&amp;id=166&amp;l=4&amp;textContainerNumber=" tooltip="https://www.shipcont.com/CCM.aspx?hidSearch=true&amp;hidFromHomePage=false&amp;hidSearchType=1&amp;id=166&amp;l=4&amp;textContainerNumber="/>
+    <hyperlink ref="F21" r:id="rId6" display="https://www.hamburgsud-line.com/liner/en/liner_services/ecommerce/track_trace/index.html" tooltip="https://www.hamburgsud-line.com/liner/en/liner_services/ecommerce/track_trace/index.html"/>
+    <hyperlink ref="F22" r:id="rId14" display="http://www.hmm21.com/cms/business/ebiz/trackTrace/trackTrace/index.jsp?type=1&amp;number=&amp;is_quick=Y&amp;quick_params=" tooltip="http://www.hmm21.com/cms/business/ebiz/trackTrace/trackTrace/index.jsp?type=1&amp;number=&amp;is_quick=Y&amp;quick_params="/>
+    <hyperlink ref="F23" r:id="rId15" display="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno=" tooltip="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno="/>
+    <hyperlink ref="F24" r:id="rId16" display="http://www.interasia.cc/content/c_service/cargo_tracking.aspx?SiteID=1" tooltip="http://www.interasia.cc/content/c_service/cargo_tracking.aspx?SiteID=1"/>
+    <hyperlink ref="F25" r:id="rId17" display="http://ejj.jjshipping.cn/cargosearch" tooltip="http://ejj.jjshipping.cn/cargosearch"/>
+    <hyperlink ref="F28" r:id="rId18" display="https://ecomm.one-line.com/ecom/CUP_HOM_3301.do?sessLocale=en?sessLocale=en" tooltip="https://ecomm.one-line.com/ecom/CUP_HOM_3301.do?sessLocale=en?sessLocale=en"/>
+    <hyperlink ref="F29" r:id="rId19" display="http://www.ekmtc.com/" tooltip="http://www.ekmtc.com/"/>
+    <hyperlink ref="F32" r:id="rId20" display="https://www.matson.com/shipment-tracking.html" tooltip="https://www.matson.com/shipment-tracking.html"/>
+    <hyperlink ref="F33" r:id="rId21" display="https://my.mcc.com.sg/tracking/#tracking" tooltip="https://my.mcc.com.sg/tracking/#tracking"/>
+    <hyperlink ref="F34" r:id="rId22" display="https://www.msc.com/aus" tooltip="https://www.msc.com/aus"/>
+    <hyperlink ref="F35" r:id="rId23" display="https://www.maersk.com/" tooltip="https://www.maersk.com/"/>
+    <hyperlink ref="F38" r:id="rId24" display="https://www.niledutch.com/en/schedules-tracking/track-your-container/" tooltip="https://www.niledutch.com/en/schedules-tracking/track-your-container/"/>
+    <hyperlink ref="F39" r:id="rId25" display="https://ebiz.swirecnco.com/vgm/TrackAndTrace" tooltip="https://ebiz.swirecnco.com/vgm/TrackAndTrace"/>
+    <hyperlink ref="F41" r:id="rId26" display="http://www.namsung.co.kr/eng/biz/eService/selectCargoTrace.do" tooltip="http://www.namsung.co.kr/eng/biz/eService/selectCargoTrace.do"/>
+    <hyperlink ref="F42" r:id="rId27" display="https://www.nykline.com/ecom/CUP_HOM_3000.do?redir=Y" tooltip="https://www.nykline.com/ecom/CUP_HOM_3000.do?redir=Y"/>
+    <hyperlink ref="F43" r:id="rId18" display="https://ecomm.one-line.com/ecom/CUP_HOM_3301.do?sessLocale=en?sessLocale=en" tooltip="https://ecomm.one-line.com/ecom/CUP_HOM_3301.do?sessLocale=en?sessLocale=en"/>
+    <hyperlink ref="F44" r:id="rId28" display="https://www.oocl.com/schi/ourservices/eservices/cargotracking/Pages/CargoTracking.aspx" tooltip="https://www.oocl.com/schi/ourservices/eservices/cargotracking/Pages/CargoTracking.aspx"/>
+    <hyperlink ref="F47" r:id="rId29" display="http://www.rclgroup.com/Home#cargo" tooltip="http://www.rclgroup.com/Home#cargo"/>
+    <hyperlink ref="F46" r:id="rId30" display="https://www.pilship.com/en-our-track-and-trace-pil-pacific-international-lines/120.html" tooltip="https://www.pilship.com/en-our-track-and-trace-pil-pacific-international-lines/120.html"/>
+    <hyperlink ref="F48" r:id="rId31" display="https://www.safmarine.com/" tooltip="https://www.safmarine.com/"/>
+    <hyperlink ref="F51" r:id="rId32" display="http://ebusiness.sinolines.com.cn/snlebusinessb/TrackingByBlno.aspx  修改了链接" tooltip="http://ebusiness.sinolines.com.cn/snlebusinessb/TrackingByBlno.aspx  修改了链接"/>
+    <hyperlink ref="F52" r:id="rId33" display="http://www.sitcline.com/login.jsp" tooltip="http://www.sitcline.com/login.jsp"/>
+    <hyperlink ref="F53" r:id="rId34" display="https://esvc.smlines.com/smline/CUP_HOM_3301.do" tooltip="https://esvc.smlines.com/smline/CUP_HOM_3301.do"/>
+    <hyperlink ref="F57" r:id="rId35" display="http://afsys.tslines.com:8081/CargoTracking/CargoTrackingBL" tooltip="http://afsys.tslines.com:8081/CargoTracking/CargoTrackingBL"/>
+    <hyperlink ref="F58" r:id="rId15" display="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno=" tooltip="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno="/>
+    <hyperlink ref="F60" r:id="rId36" display="https://www.wanhai.com/views/cargoTrack/CargoTrack.xhtml" tooltip="https://www.wanhai.com/views/cargoTrack/CargoTrack.xhtml"/>
+    <hyperlink ref="F61" r:id="rId37" display="https://o-www.yangming.com/" tooltip="https://o-www.yangming.com/"/>
+    <hyperlink ref="F62" r:id="rId38" display="https://www.zimchina.com/tools/track-a-shipment?consnumber=" tooltip="https://www.zimchina.com/tools/track-a-shipment?consnumber="/>
+    <hyperlink ref="F19" r:id="rId39" display="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=HAL&amp;companyid=0&amp;lang=ZH-CN" tooltip="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=HAL&amp;companyid=0&amp;lang=ZH-CN"/>
+    <hyperlink ref="F14" r:id="rId40" display="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=DYS&amp;companyid=0&amp;lang=ZH-CN" tooltip="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=DYS&amp;companyid=0&amp;lang=ZH-CN"/>
+    <hyperlink ref="F27" r:id="rId41" display="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=KKC&amp;companyid=0&amp;lang=ZH-CN" tooltip="http://www.yundangnet.com/CargoTracking/QueryIframe?bkgno=&amp;ctnrno=&amp;carrier=KKC&amp;companyid=0&amp;lang=ZH-CN"/>
+    <hyperlink ref="F31" r:id="rId42" display="https://www.mellship.com/Track" tooltip="https://www.mellship.com/Track"/>
+    <hyperlink ref="F45" r:id="rId43" display="http://www.pancon.co.kr/pan/pageLink.pcl?link=index" tooltip="http://www.pancon.co.kr/pan/pageLink.pcl?link=index"/>
+    <hyperlink ref="F54" r:id="rId44" display="http://container.panocean.com/HP2401/hp2401List.stx" tooltip="http://container.panocean.com/HP2401/hp2401List.stx"/>
+    <hyperlink ref="F17" r:id="rId45" display="https://www.fesco.ru/en/" tooltip="https://www.fesco.ru/en/"/>
+    <hyperlink ref="F13" r:id="rId46" display="http://korea.djship.co.kr/dj/ui/cn/support/sub3_5_0.jsp?PROGRAM_ID=sub3_5" tooltip="http://korea.djship.co.kr/dj/ui/cn/support/sub3_5_0.jsp?PROGRAM_ID=sub3_5"/>
+    <hyperlink ref="F3" r:id="rId47" display="http://www.aclcargo.com/trackCargo.php" tooltip="http://www.aclcargo.com/trackCargo.php"/>
+    <hyperlink ref="F6" r:id="rId48" display="https://www.culines.com/" tooltip="https://www.culines.com/"/>
+    <hyperlink ref="F20" r:id="rId49" display="https://www.master-agency.com.cn/" tooltip="https://www.master-agency.com.cn/"/>
+    <hyperlink ref="F26" r:id="rId50" display="http://www.kanway.tw/KW_ITRI/pages/SeaPublicSearch.aspx?tv=005" tooltip="http://www.kanway.tw/KW_ITRI/pages/SeaPublicSearch.aspx?tv=005"/>
+    <hyperlink ref="F30" r:id="rId51" display="https://www.shipmentlink.com/servlet/TDB1_CargoTracking.do" tooltip="https://www.shipmentlink.com/servlet/TDB1_CargoTracking.do"/>
+    <hyperlink ref="F37" r:id="rId52" display="https://www.hapag-lloyd.com/en/home.html" tooltip="https://www.hapag-lloyd.com/en/home.html"/>
+    <hyperlink ref="F36" r:id="rId53" display="http://www.mssco.net/Eip/Svc/wfCargoTracking.aspx" tooltip="http://www.mssco.net/Eip/Svc/wfCargoTracking.aspx"/>
+    <hyperlink ref="F40" r:id="rId54" display="https://www.bahri.sa/Online-Services/Tracking.aspx?lang=en-US" tooltip="https://www.bahri.sa/Online-Services/Tracking.aspx?lang=en-US"/>
+    <hyperlink ref="F49" r:id="rId55" display="http://www.sinokor.co.kr/" tooltip="http://www.sinokor.co.kr/"/>
+    <hyperlink ref="F50" r:id="rId56" display="https://my.sealand.com/" tooltip="https://my.sealand.com/"/>
+    <hyperlink ref="F55" r:id="rId57" display="http://tassgroup.com/php/schedule_tracking.php?contentid=MjUw&amp;cnt_supm_id=MTQ3&amp;category_name=Customer%20Zone" tooltip="http://tassgroup.com/php/schedule_tracking.php?contentid=MjUw&amp;cnt_supm_id=MTQ3&amp;category_name=Customer%20Zone"/>
+    <hyperlink ref="F56" r:id="rId15" display="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno=" tooltip="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno="/>
+    <hyperlink ref="F59" r:id="rId58" display="http://www.anl.com.au/" tooltip="http://www.anl.com.au/"/>
+    <hyperlink ref="F65" r:id="rId59" display="http://www.hasco.com.cn/" tooltip="http://www.hasco.com.cn/"/>
+    <hyperlink ref="F66" r:id="rId60" display="http://www.hltsz.com.cn/index.php" tooltip="http://www.hltsz.com.cn/index.php"/>
+    <hyperlink ref="F64" r:id="rId61" display="http://www.yundangnet.com/redirectPage?blno=NOSNB9TZ36019&amp;ctnrno=&amp;carrier=NOSCO&amp;companyid=0&amp;tag=sea"/>
+    <hyperlink ref="F63" r:id="rId62" display="http://www.zhonggushipping.com/index.jsp" tooltip="http://www.zhonggushipping.com/index.jsp"/>
+    <hyperlink ref="G51" r:id="rId63" display="http://ebusiness.sinolines.com.cn/SnlEbusiness/TrackingCargoByBlno.aspx"/>
+    <hyperlink ref="F69" r:id="rId64" tooltip="http://www.tslines.com/EN/ "/>
+    <hyperlink ref="G57" r:id="rId64" display="http://www.tslines.com/EN/ "/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/海运最新链接.xlsx
+++ b/海运最新链接.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="空运跳转链接" sheetId="1" r:id="rId1"/>
     <sheet name="海运跳转链接" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="10000" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="791">
   <si>
     <t>AA</t>
   </si>
@@ -2436,6 +2436,9 @@
     <t>https://www.apl.com/ebusiness/tracking</t>
   </si>
   <si>
+    <t>有正则匹配 网址 和跳转网址</t>
+  </si>
+  <si>
     <t>ATL</t>
   </si>
   <si>
@@ -2484,6 +2487,9 @@
   </si>
   <si>
     <t>http://www.ckline.co.kr/english/main/main.ck</t>
+  </si>
+  <si>
+    <t>官网修改链接 http://www.ckline.co.kr/  跳转链接http://es.ckline.co.kr/</t>
   </si>
   <si>
     <t>CMA</t>
@@ -3620,10 +3626,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3746,23 +3752,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3774,8 +3835,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3795,71 +3864,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3899,13 +3905,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3917,13 +3971,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3935,61 +4067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4001,31 +4079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4037,61 +4091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4105,41 +4111,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4150,6 +4121,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4172,8 +4167,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4189,16 +4186,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4210,10 +4216,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4222,16 +4228,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4243,119 +4249,122 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4374,6 +4383,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4383,19 +4407,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4477,7 +4504,7 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4636,7 +4663,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14000480" y="1132205"/>
+          <a:off x="18677255" y="1132205"/>
           <a:ext cx="9431020" cy="2259965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4915,2067 +4942,2067 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
-    <col min="3" max="3" width="19" style="20" customWidth="1"/>
+    <col min="1" max="1" width="9" style="27"/>
+    <col min="3" max="3" width="19" style="27" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="71.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" spans="1:10">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="J2" s="39" t="s">
+      <c r="F2" s="32"/>
+      <c r="J2" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:10">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="J3" s="39" t="s">
+      <c r="F3" s="32"/>
+      <c r="J3" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="J4" s="39" t="s">
+      <c r="F4" s="32"/>
+      <c r="J4" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:10">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="J5" s="39" t="s">
+      <c r="F5" s="32"/>
+      <c r="J5" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="J6" s="39" t="s">
+      <c r="F6" s="32"/>
+      <c r="J6" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:10">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="J7" s="39" t="s">
+      <c r="F7" s="32"/>
+      <c r="J7" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:10">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="J14" s="39" t="s">
+      <c r="F14" s="32"/>
+      <c r="J14" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:10">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="35" t="s">
         <v>89</v>
       </c>
       <c r="G18" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" ht="14.25" spans="1:10">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="J20" s="39" t="s">
+      <c r="F20" s="32"/>
+      <c r="J20" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="32" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="33"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" ht="14.25" spans="1:10">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="J31" s="39" t="s">
+      <c r="F31" s="32"/>
+      <c r="J31" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="32" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="25"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="25"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="25"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:10">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="J38" s="39" t="s">
+      <c r="J38" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="25"/>
+      <c r="F39" s="32"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="25"/>
+      <c r="F40" s="32"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="F41" s="25"/>
+      <c r="F41" s="32"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="32" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="25"/>
+      <c r="F44" s="32"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24" t="s">
+      <c r="D45" s="30"/>
+      <c r="E45" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="25"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47" ht="27" spans="1:6">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="F47" s="25"/>
+      <c r="F47" s="32"/>
     </row>
     <row r="48" ht="14.25" spans="1:10">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="J48" s="39" t="s">
+      <c r="J48" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F49" s="25"/>
+      <c r="F49" s="32"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="F50" s="25"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="F51" s="25"/>
+      <c r="F51" s="32"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="32"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="F53" s="25"/>
+      <c r="F53" s="32"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="F54" s="25"/>
+      <c r="F54" s="32"/>
     </row>
     <row r="55" ht="19" customHeight="1" spans="1:6">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="31" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="F56" s="25"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="F57" s="25"/>
+      <c r="F57" s="32"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="F58" s="25"/>
+      <c r="F58" s="32"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="F59" s="25"/>
+      <c r="F59" s="32"/>
     </row>
     <row r="60" ht="24" customHeight="1" spans="1:6">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="32" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="E61" s="36" t="s">
+      <c r="E61" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:10">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="F62" s="25"/>
-      <c r="J62" s="39" t="s">
+      <c r="F62" s="32"/>
+      <c r="J62" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" ht="27" spans="1:6">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="F63" s="25"/>
+      <c r="F63" s="32"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="E64" s="36" t="s">
+      <c r="E64" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="F64" s="25"/>
+      <c r="F64" s="32"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="E65" s="36" t="s">
+      <c r="E65" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="F65" s="25"/>
+      <c r="F65" s="32"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:6">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="F66" s="25"/>
+      <c r="F66" s="32"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="F67" s="25"/>
+      <c r="F67" s="32"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="E68" s="36" t="s">
+      <c r="E68" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="F68" s="25"/>
+      <c r="F68" s="32"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="F69" s="25"/>
+      <c r="F69" s="32"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="32" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="F71" s="25"/>
+      <c r="F71" s="32"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="E72" s="40" t="s">
+      <c r="E72" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="F72" s="32" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:10">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="F73" s="25"/>
-      <c r="J73" s="39" t="s">
+      <c r="F73" s="32"/>
+      <c r="J73" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" ht="16" customHeight="1" spans="1:6">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="D74" s="38" t="s">
+      <c r="D74" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="E74" s="42" t="s">
+      <c r="E74" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="F74" s="25"/>
+      <c r="F74" s="32"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="F75" s="25"/>
+      <c r="F75" s="32"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="E76" s="36" t="s">
+      <c r="E76" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="F76" s="25" t="s">
+      <c r="F76" s="32" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="E77" s="36" t="s">
+      <c r="E77" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="F77" s="25"/>
+      <c r="F77" s="32"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="E78" s="36" t="s">
+      <c r="E78" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="F78" s="25" t="s">
+      <c r="F78" s="32" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="F79" s="25"/>
+      <c r="F79" s="32"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="E80" s="36" t="s">
+      <c r="E80" s="43" t="s">
         <v>402</v>
       </c>
-      <c r="F80" s="25"/>
+      <c r="F80" s="32"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="E81" s="36" t="s">
+      <c r="E81" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="F81" s="25"/>
+      <c r="F81" s="32"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="E82" s="36" t="s">
+      <c r="E82" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="F82" s="32" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="E83" s="36" t="s">
+      <c r="E83" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F83" s="25"/>
+      <c r="F83" s="32"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="E84" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="F84" s="25" t="s">
+      <c r="F84" s="32" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="85" ht="27" spans="1:10">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="E85" s="37" t="s">
+      <c r="E85" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="F85" s="25" t="s">
+      <c r="F85" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="J85" s="39" t="s">
+      <c r="J85" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="28" t="s">
         <v>431</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="E86" s="36" t="s">
+      <c r="E86" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="F86" s="25"/>
+      <c r="F86" s="32"/>
     </row>
     <row r="87" ht="15" customHeight="1" spans="1:6">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="E87" s="36" t="s">
+      <c r="E87" s="43" t="s">
         <v>438</v>
       </c>
-      <c r="F87" s="25"/>
+      <c r="F87" s="32"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D88" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F88" s="32" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:10">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E89" s="43" t="s">
+      <c r="E89" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="F89" s="25" t="s">
+      <c r="F89" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="J89" s="39" t="s">
+      <c r="J89" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D90" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="E90" s="36" t="s">
+      <c r="E90" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" s="32" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="91" ht="14.25" spans="1:10">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="E91" s="43" t="s">
+      <c r="E91" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="F91" s="25"/>
-      <c r="J91" s="39" t="s">
+      <c r="F91" s="32"/>
+      <c r="J91" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:10">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="E92" s="36" t="s">
+      <c r="E92" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="F92" s="25"/>
-      <c r="J92" s="39" t="s">
+      <c r="F92" s="32"/>
+      <c r="J92" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="93" ht="24" customHeight="1" spans="1:6">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D93" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="E93" s="36" t="s">
+      <c r="E93" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="F93" s="25" t="s">
+      <c r="F93" s="32" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D94" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E94" s="36" t="s">
+      <c r="E94" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="F94" s="25"/>
+      <c r="F94" s="32"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D95" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="E95" s="36" t="s">
+      <c r="E95" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="F95" s="25"/>
+      <c r="F95" s="32"/>
     </row>
     <row r="96" ht="14.25" spans="1:10">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="E96" s="36" t="s">
+      <c r="E96" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="F96" s="25"/>
-      <c r="J96" s="39" t="s">
+      <c r="F96" s="32"/>
+      <c r="J96" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="28" t="s">
         <v>485</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="D97" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="E97" s="24" t="s">
+      <c r="E97" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="F97" s="25"/>
+      <c r="F97" s="32"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="24" t="s">
+      <c r="D98" s="30"/>
+      <c r="E98" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="F98" s="25" t="s">
+      <c r="F98" s="32" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="D99" s="27" t="s">
+      <c r="D99" s="34" t="s">
         <v>496</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="E99" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="F99" s="25"/>
+      <c r="F99" s="32"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="28" t="s">
         <v>498</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="D100" s="27" t="s">
+      <c r="D100" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="E100" s="24" t="s">
+      <c r="E100" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="F100" s="25"/>
+      <c r="F100" s="32"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="28" t="s">
         <v>505</v>
       </c>
-      <c r="D101" s="23" t="s">
+      <c r="D101" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="E101" s="24" t="s">
+      <c r="E101" s="31" t="s">
         <v>507</v>
       </c>
-      <c r="F101" s="25" t="s">
+      <c r="F101" s="32" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="28" t="s">
         <v>508</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="D102" s="27" t="s">
+      <c r="D102" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="E102" s="36" t="s">
+      <c r="E102" s="43" t="s">
         <v>512</v>
       </c>
-      <c r="F102" s="25"/>
+      <c r="F102" s="32"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="D103" s="23" t="s">
+      <c r="D103" s="30" t="s">
         <v>516</v>
       </c>
-      <c r="E103" s="24" t="s">
+      <c r="E103" s="31" t="s">
         <v>517</v>
       </c>
-      <c r="F103" s="25" t="s">
+      <c r="F103" s="32" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:10">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="28" t="s">
         <v>518</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="29" t="s">
         <v>519</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="D104" s="44" t="s">
+      <c r="D104" s="51" t="s">
         <v>521</v>
       </c>
       <c r="E104" t="s">
         <v>522</v>
       </c>
-      <c r="F104" s="25" t="s">
+      <c r="F104" s="32" t="s">
         <v>523</v>
       </c>
-      <c r="J104" s="39" t="s">
+      <c r="J104" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:10">
-      <c r="A105" s="45" t="s">
+      <c r="A105" s="52" t="s">
         <v>524</v>
       </c>
-      <c r="B105" s="46" t="s">
+      <c r="B105" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="C105" s="45" t="s">
+      <c r="C105" s="52" t="s">
         <v>526</v>
       </c>
-      <c r="D105" s="23"/>
-      <c r="E105" s="47" t="s">
+      <c r="D105" s="30"/>
+      <c r="E105" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="J105" s="39" t="s">
+      <c r="J105" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:10">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="B106" s="20">
+      <c r="B106" s="27">
         <v>828</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="27" t="s">
         <v>528</v>
       </c>
       <c r="E106" t="s">
         <v>270</v>
       </c>
-      <c r="J106" s="39" t="s">
+      <c r="J106" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A107" s="48" t="s">
+    <row r="107" s="2" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A107" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="B107" s="48">
+      <c r="B107" s="55">
         <v>288</v>
       </c>
-      <c r="C107" s="48" t="s">
+      <c r="C107" s="55" t="s">
         <v>530</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="J107" s="50" t="s">
+      <c r="J107" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:10">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="27" t="s">
         <v>533</v>
       </c>
-      <c r="B108" s="20">
+      <c r="B108" s="27">
         <v>173</v>
       </c>
-      <c r="C108" s="49" t="s">
+      <c r="C108" s="56" t="s">
         <v>534</v>
       </c>
       <c r="E108" t="s">
         <v>535</v>
       </c>
-      <c r="J108" s="50" t="s">
+      <c r="J108" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="112" spans="4:4">
-      <c r="D112" s="20"/>
+      <c r="D112" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7095,8 +7122,8 @@
   <sheetPr/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7106,33 +7133,34 @@
     <col min="4" max="4" width="5.875" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
     <col min="6" max="6" width="109.125" customWidth="1"/>
+    <col min="7" max="7" width="70.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="2:6">
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>540</v>
       </c>
     </row>
@@ -7140,1190 +7168,1196 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="1:6">
+    <row r="4" ht="16" customHeight="1" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>547</v>
+      </c>
+      <c r="G4" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="12" t="s">
         <v>552</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>555</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1" spans="1:6">
-      <c r="A8">
+    <row r="8" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="16" t="s">
         <v>563</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>567</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>571</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>575</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:6">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>567</v>
+      <c r="C12" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:6">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>581</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:6">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>584</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:6">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>588</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:6">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>592</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:7">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
         <v>597</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:6">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>601</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:7">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="11" t="s">
         <v>606</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:6">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>609</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:7">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="C21" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
-      <c r="A22" s="1">
+    <row r="22" s="2" customFormat="1" ht="16" customHeight="1" spans="1:7">
+      <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15" t="s">
+      <c r="B22" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="C22" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="22" t="s">
         <v>617</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:6">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>621</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:6">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>625</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:6">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>629</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:6">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>632</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:6">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>636</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:6">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17" t="s">
+      <c r="B28" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>640</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:6">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>644</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:6">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>647</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:7">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>606</v>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:7">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>606</v>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:6">
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>659</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:6">
       <c r="A34">
         <v>34</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="C34" s="9" t="s">
         <v>663</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:6">
       <c r="A35">
         <v>35</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>667</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:6">
       <c r="A36">
         <v>36</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>670</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:6">
       <c r="A37">
         <v>37</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>673</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:6">
       <c r="A38">
         <v>38</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="C38" s="9" t="s">
         <v>677</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:6">
       <c r="A39">
         <v>39</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
-      <c r="A40" s="1">
+      <c r="D39" s="10"/>
+      <c r="E39" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="16" customHeight="1" spans="1:7">
+      <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="16" t="s">
+      <c r="B40" s="19" t="s">
         <v>684</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="C40" s="20" t="s">
         <v>685</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:6">
       <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="C41" s="9" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
-      <c r="A42" s="1">
+      <c r="D41" s="10"/>
+      <c r="E41" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="16" customHeight="1" spans="1:8">
+      <c r="A42" s="2">
         <v>42</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15" t="s">
+      <c r="B42" s="19" t="s">
         <v>692</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="C42" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="D42" s="21"/>
+      <c r="E42" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="F42" s="23" t="s">
         <v>695</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1" spans="1:6">
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>640</v>
+      <c r="C43" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1" spans="1:6">
       <c r="A44">
         <v>44</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="C44" s="9" t="s">
         <v>702</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="45" ht="16" customHeight="1" spans="1:6">
       <c r="A45">
         <v>45</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>706</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:6">
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="C46" s="9" t="s">
         <v>710</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:6">
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="C47" s="9" t="s">
         <v>714</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="48" ht="16" customHeight="1" spans="1:6">
       <c r="A48">
         <v>48</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="C48" s="9" t="s">
         <v>718</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="49" ht="16" customHeight="1" spans="1:6">
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="C49" s="9" t="s">
         <v>722</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="50" ht="16" customHeight="1" spans="1:6">
       <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11" t="s">
+      <c r="B50" s="8" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
-      <c r="A51" s="1">
+      <c r="C50" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="16" customHeight="1" spans="1:7">
+      <c r="A51" s="2">
         <v>51</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="18" t="s">
+      <c r="B51" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="C51" s="20" t="s">
         <v>729</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="D51" s="21"/>
+      <c r="E51" s="25" t="s">
         <v>730</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="52" ht="16" customHeight="1" spans="1:6">
       <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="C52" s="9" t="s">
         <v>734</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="53" ht="16" customHeight="1" spans="1:6">
       <c r="A53">
         <v>53</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="C53" s="9" t="s">
         <v>738</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="54" ht="16" customHeight="1" spans="1:6">
       <c r="A54">
         <v>54</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="C54" s="9" t="s">
         <v>742</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="55" ht="16" customHeight="1" spans="1:6">
       <c r="A55">
         <v>55</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11" t="s">
+      <c r="B55" s="8" t="s">
         <v>745</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="56" ht="16" customHeight="1" spans="1:6">
       <c r="A56">
         <v>56</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="11" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
-      <c r="A57" s="1">
+      <c r="B56" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="16" customHeight="1" spans="1:8">
+      <c r="A57" s="2">
         <v>58</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>748</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="18" t="s">
+      <c r="B57" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="C57" s="20" t="s">
         <v>751</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="D57" s="21"/>
+      <c r="E57" s="25" t="s">
         <v>752</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="F57" s="23" t="s">
         <v>753</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="58" ht="16" customHeight="1" spans="1:6">
       <c r="A58">
         <v>59</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="F58" s="11" t="s">
-        <v>621</v>
+      <c r="C58" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="59" ht="16" customHeight="1" spans="1:6">
       <c r="A59">
         <v>60</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>760</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="60" ht="16" customHeight="1" spans="1:6">
       <c r="A60">
         <v>62</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="C60" s="9" t="s">
         <v>764</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="61" ht="16" customHeight="1" spans="1:6">
       <c r="A61">
         <v>63</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="C61" s="9" t="s">
         <v>768</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="62" ht="16" customHeight="1" spans="1:6">
       <c r="A62">
         <v>64</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="C62" s="9" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
-      <c r="A63" s="1">
+      <c r="D62" s="10"/>
+      <c r="E62" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="16" customHeight="1" spans="1:8">
+      <c r="A63" s="2">
         <v>65</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>773</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="18" t="s">
+      <c r="B63" s="19" t="s">
         <v>775</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="C63" s="20" t="s">
         <v>776</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>695</v>
+      <c r="D63" s="21"/>
+      <c r="E63" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="64" ht="16" customHeight="1" spans="1:6">
       <c r="A64">
         <v>66</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="C64" s="9" t="s">
         <v>780</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="65" ht="16" customHeight="1" spans="1:6">
       <c r="A65">
         <v>68</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="11" t="s">
+      <c r="B65" s="8" t="s">
         <v>783</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="66" ht="16" customHeight="1" spans="1:6">
       <c r="A66">
         <v>69</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="11" t="s">
+      <c r="B66" s="8" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="2:7">
-      <c r="B67" s="1" t="s">
+      <c r="C66" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="2:7">
-      <c r="B68" s="1" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="6:6">
-      <c r="F69" s="19"/>
+    </row>
+    <row r="67" s="2" customFormat="1" spans="2:7">
+      <c r="B67" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" spans="2:7">
+      <c r="B68" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="6:6">
+      <c r="F69" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -8464,6 +8498,7 @@
     <hyperlink ref="G51" r:id="rId63" display="http://ebusiness.sinolines.com.cn/SnlEbusiness/TrackingCargoByBlno.aspx"/>
     <hyperlink ref="F69" r:id="rId64" tooltip="http://www.tslines.com/EN/ "/>
     <hyperlink ref="G57" r:id="rId64" display="http://www.tslines.com/EN/ "/>
+    <hyperlink ref="G8" r:id="rId65" display="官网修改链接 http://www.ckline.co.kr/  跳转链接http://es.ckline.co.kr/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/海运最新链接.xlsx
+++ b/海运最新链接.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="空运跳转链接" sheetId="1" r:id="rId1"/>
     <sheet name="海运跳转链接" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="10000" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="793">
   <si>
     <t>AA</t>
   </si>
@@ -3398,7 +3398,10 @@
     </r>
   </si>
   <si>
-    <t>http://www.sinokor.co.kr/</t>
+    <t xml:space="preserve">http://www.sinokor.co.kr/ </t>
+  </si>
+  <si>
+    <t>http://www.sinokor.co.kr/  修改 链接</t>
   </si>
   <si>
     <t>SEALAND</t>
@@ -3582,6 +3585,9 @@
   </si>
   <si>
     <t>http://www.zhonggushipping.com/index.jsp</t>
+  </si>
+  <si>
+    <t>修改链接  http://dingcang.zhonggu56.com/views/cargoTracking/cargoTracking.jsp</t>
   </si>
   <si>
     <t>NOSCO</t>
@@ -3947,12 +3953,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4001,19 +4001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4055,19 +4043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4098,6 +4074,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4216,149 +4222,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4436,6 +4442,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
@@ -4942,2036 +4951,2036 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="27"/>
-    <col min="3" max="3" width="19" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9" style="28"/>
+    <col min="3" max="3" width="19" style="28" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="71.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" spans="1:10">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="J2" s="46" t="s">
+      <c r="F2" s="33"/>
+      <c r="J2" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:10">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="J3" s="46" t="s">
+      <c r="F3" s="33"/>
+      <c r="J3" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="J4" s="46" t="s">
+      <c r="F4" s="33"/>
+      <c r="J4" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:10">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="J5" s="46" t="s">
+      <c r="F5" s="33"/>
+      <c r="J5" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="J6" s="46" t="s">
+      <c r="F6" s="33"/>
+      <c r="J6" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:10">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="J7" s="46" t="s">
+      <c r="F7" s="33"/>
+      <c r="J7" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:10">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="J14" s="46" t="s">
+      <c r="F14" s="33"/>
+      <c r="J14" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:10">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="36" t="s">
         <v>89</v>
       </c>
       <c r="G18" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="46" t="s">
+      <c r="J18" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" ht="14.25" spans="1:10">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="J20" s="46" t="s">
+      <c r="F20" s="33"/>
+      <c r="J20" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="32"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="32"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="32"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="32"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="33" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="41"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="32"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" ht="14.25" spans="1:10">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="J31" s="46" t="s">
+      <c r="F31" s="33"/>
+      <c r="J31" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="33" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="32"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="32"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="32"/>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:10">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="J38" s="46" t="s">
+      <c r="J38" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="32"/>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="32"/>
+      <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="F41" s="32"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="32"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31" t="s">
+      <c r="D45" s="31"/>
+      <c r="E45" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="33" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="32"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" ht="27" spans="1:6">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="E47" s="44" t="s">
+      <c r="E47" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="F47" s="32"/>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" ht="14.25" spans="1:10">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F48" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="J48" s="46" t="s">
+      <c r="J48" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="F49" s="32"/>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="F50" s="32"/>
+      <c r="F50" s="33"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="F51" s="32"/>
+      <c r="F51" s="33"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="F52" s="32"/>
+      <c r="F52" s="33"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="F53" s="32"/>
+      <c r="F53" s="33"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="F54" s="32"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" ht="19" customHeight="1" spans="1:6">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="E55" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="32" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="F56" s="32"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="E57" s="43" t="s">
+      <c r="E57" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="F57" s="32"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E58" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="F58" s="32"/>
+      <c r="F58" s="33"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E59" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="F59" s="32"/>
+      <c r="F59" s="33"/>
     </row>
     <row r="60" ht="24" customHeight="1" spans="1:6">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="F60" s="33" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="E61" s="43" t="s">
+      <c r="E61" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="F61" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:10">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="F62" s="32"/>
-      <c r="J62" s="46" t="s">
+      <c r="F62" s="33"/>
+      <c r="J62" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" ht="27" spans="1:6">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="E63" s="44" t="s">
+      <c r="E63" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="F63" s="32"/>
+      <c r="F63" s="33"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="F64" s="32"/>
+      <c r="F64" s="33"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="E65" s="43" t="s">
+      <c r="E65" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="F65" s="32"/>
+      <c r="F65" s="33"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:6">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="F66" s="32"/>
+      <c r="F66" s="33"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="E67" s="43" t="s">
+      <c r="E67" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="F67" s="32"/>
+      <c r="F67" s="33"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="E68" s="43" t="s">
+      <c r="E68" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="F68" s="32"/>
+      <c r="F68" s="33"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="E69" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="F69" s="32"/>
+      <c r="F69" s="33"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="F70" s="32" t="s">
+      <c r="F70" s="33" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D71" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="E71" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="F71" s="32"/>
+      <c r="F71" s="33"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="28" t="s">
+      <c r="B72" s="30"/>
+      <c r="C72" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="E72" s="47" t="s">
+      <c r="E72" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="F72" s="33" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:10">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="D73" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="F73" s="32"/>
-      <c r="J73" s="46" t="s">
+      <c r="F73" s="33"/>
+      <c r="J73" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" ht="16" customHeight="1" spans="1:6">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="D74" s="45" t="s">
+      <c r="D74" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="E74" s="49" t="s">
+      <c r="E74" s="50" t="s">
         <v>372</v>
       </c>
-      <c r="F74" s="32"/>
+      <c r="F74" s="33"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="E75" s="43" t="s">
+      <c r="E75" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="F75" s="32"/>
+      <c r="F75" s="33"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E76" s="43" t="s">
+      <c r="E76" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="F76" s="32" t="s">
+      <c r="F76" s="33" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="E77" s="43" t="s">
+      <c r="E77" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="F77" s="32"/>
+      <c r="F77" s="33"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="D78" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="E78" s="43" t="s">
+      <c r="E78" s="44" t="s">
         <v>391</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="F78" s="33" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="D79" s="34" t="s">
+      <c r="D79" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="E79" s="43" t="s">
+      <c r="E79" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="F79" s="32"/>
+      <c r="F79" s="33"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="D80" s="34" t="s">
+      <c r="D80" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="E80" s="43" t="s">
+      <c r="E80" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="F80" s="32"/>
+      <c r="F80" s="33"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="E81" s="43" t="s">
+      <c r="E81" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="F81" s="32"/>
+      <c r="F81" s="33"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="E82" s="43" t="s">
+      <c r="E82" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="F82" s="32" t="s">
+      <c r="F82" s="33" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="D83" s="34" t="s">
+      <c r="D83" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="E83" s="43" t="s">
+      <c r="E83" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="F83" s="32"/>
+      <c r="F83" s="33"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="D84" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="F84" s="32" t="s">
+      <c r="F84" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="85" ht="27" spans="1:10">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="C85" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="D85" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E85" s="44" t="s">
+      <c r="E85" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="F85" s="32" t="s">
+      <c r="F85" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="J85" s="46" t="s">
+      <c r="J85" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="D86" s="34" t="s">
+      <c r="D86" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="E86" s="43" t="s">
+      <c r="E86" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="F86" s="32"/>
+      <c r="F86" s="33"/>
     </row>
     <row r="87" ht="15" customHeight="1" spans="1:6">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="D87" s="38" t="s">
+      <c r="D87" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="E87" s="43" t="s">
+      <c r="E87" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="F87" s="32"/>
+      <c r="F87" s="33"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D88" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E88" s="43" t="s">
+      <c r="E88" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="F88" s="32" t="s">
+      <c r="F88" s="33" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:10">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="E89" s="50" t="s">
+      <c r="E89" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="F89" s="32" t="s">
+      <c r="F89" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="J89" s="46" t="s">
+      <c r="J89" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="D90" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="E90" s="43" t="s">
+      <c r="E90" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="F90" s="32" t="s">
+      <c r="F90" s="33" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="91" ht="14.25" spans="1:10">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="C91" s="28" t="s">
+      <c r="C91" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="D91" s="34" t="s">
+      <c r="D91" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="E91" s="50" t="s">
+      <c r="E91" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="F91" s="32"/>
-      <c r="J91" s="46" t="s">
+      <c r="F91" s="33"/>
+      <c r="J91" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:10">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D92" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="E92" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="F92" s="32"/>
-      <c r="J92" s="46" t="s">
+      <c r="F92" s="33"/>
+      <c r="J92" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="93" ht="24" customHeight="1" spans="1:6">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="D93" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="E93" s="43" t="s">
+      <c r="E93" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="F93" s="32" t="s">
+      <c r="F93" s="33" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="D94" s="34" t="s">
+      <c r="D94" s="35" t="s">
         <v>471</v>
       </c>
-      <c r="E94" s="43" t="s">
+      <c r="E94" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="F94" s="32"/>
+      <c r="F94" s="33"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="C95" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="D95" s="34" t="s">
+      <c r="D95" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="E95" s="43" t="s">
+      <c r="E95" s="44" t="s">
         <v>477</v>
       </c>
-      <c r="F95" s="32"/>
+      <c r="F95" s="33"/>
     </row>
     <row r="96" ht="14.25" spans="1:10">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="D96" s="34" t="s">
+      <c r="D96" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="E96" s="43" t="s">
+      <c r="E96" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="F96" s="32"/>
-      <c r="J96" s="46" t="s">
+      <c r="F96" s="33"/>
+      <c r="J96" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="D97" s="30" t="s">
+      <c r="D97" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E97" s="31" t="s">
+      <c r="E97" s="32" t="s">
         <v>487</v>
       </c>
-      <c r="F97" s="32"/>
+      <c r="F97" s="33"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="C98" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="D98" s="30"/>
-      <c r="E98" s="31" t="s">
+      <c r="D98" s="31"/>
+      <c r="E98" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="F98" s="32" t="s">
+      <c r="F98" s="33" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="D99" s="34" t="s">
+      <c r="D99" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E99" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="F99" s="32"/>
+      <c r="F99" s="33"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="30" t="s">
         <v>499</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="D100" s="34" t="s">
+      <c r="D100" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="E100" s="31" t="s">
+      <c r="E100" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="F100" s="32"/>
+      <c r="F100" s="33"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="D101" s="30" t="s">
+      <c r="D101" s="31" t="s">
         <v>506</v>
       </c>
-      <c r="E101" s="31" t="s">
+      <c r="E101" s="32" t="s">
         <v>507</v>
       </c>
-      <c r="F101" s="32" t="s">
+      <c r="F101" s="33" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="29" t="s">
         <v>510</v>
       </c>
-      <c r="D102" s="34" t="s">
+      <c r="D102" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="E102" s="43" t="s">
+      <c r="E102" s="44" t="s">
         <v>512</v>
       </c>
-      <c r="F102" s="32"/>
+      <c r="F102" s="33"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="B103" s="29" t="s">
+      <c r="B103" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="31" t="s">
         <v>516</v>
       </c>
-      <c r="E103" s="31" t="s">
+      <c r="E103" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="F103" s="32" t="s">
+      <c r="F103" s="33" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:10">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="29" t="s">
         <v>518</v>
       </c>
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="30" t="s">
         <v>519</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="D104" s="51" t="s">
+      <c r="D104" s="52" t="s">
         <v>521</v>
       </c>
       <c r="E104" t="s">
         <v>522</v>
       </c>
-      <c r="F104" s="32" t="s">
+      <c r="F104" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="J104" s="46" t="s">
+      <c r="J104" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:10">
-      <c r="A105" s="52" t="s">
+      <c r="A105" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="54" t="s">
         <v>525</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="53" t="s">
         <v>526</v>
       </c>
-      <c r="D105" s="30"/>
-      <c r="E105" s="54" t="s">
+      <c r="D105" s="31"/>
+      <c r="E105" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="J105" s="46" t="s">
+      <c r="J105" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:10">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="B106" s="27">
+      <c r="B106" s="28">
         <v>828</v>
       </c>
-      <c r="C106" s="27" t="s">
+      <c r="C106" s="28" t="s">
         <v>528</v>
       </c>
       <c r="E106" t="s">
         <v>270</v>
       </c>
-      <c r="J106" s="46" t="s">
+      <c r="J106" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="107" s="2" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A107" s="55" t="s">
+      <c r="A107" s="56" t="s">
         <v>529</v>
       </c>
-      <c r="B107" s="55">
+      <c r="B107" s="56">
         <v>288</v>
       </c>
-      <c r="C107" s="55" t="s">
+      <c r="C107" s="56" t="s">
         <v>530</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -6980,29 +6989,29 @@
       <c r="E107" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="J107" s="57" t="s">
+      <c r="J107" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:10">
-      <c r="A108" s="27" t="s">
+      <c r="A108" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="B108" s="27">
+      <c r="B108" s="28">
         <v>173</v>
       </c>
-      <c r="C108" s="56" t="s">
+      <c r="C108" s="57" t="s">
         <v>534</v>
       </c>
       <c r="E108" t="s">
         <v>535</v>
       </c>
-      <c r="J108" s="57" t="s">
+      <c r="J108" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="112" spans="4:4">
-      <c r="D112" s="27"/>
+      <c r="D112" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7122,8 +7131,8 @@
   <sheetPr/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -8011,7 +8020,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="49" ht="16" customHeight="1" spans="1:6">
+    <row r="49" ht="16" customHeight="1" spans="1:7">
       <c r="A49">
         <v>49</v>
       </c>
@@ -8028,21 +8037,24 @@
       <c r="F49" s="12" t="s">
         <v>724</v>
       </c>
+      <c r="G49" s="26" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="50" ht="16" customHeight="1" spans="1:6">
       <c r="A50">
         <v>50</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="11"/>
       <c r="F50" s="12" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="16" customHeight="1" spans="1:7">
@@ -8050,20 +8062,20 @@
         <v>51</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="25" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>731</v>
-      </c>
-      <c r="G51" s="26" t="s">
         <v>732</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="52" ht="16" customHeight="1" spans="1:6">
@@ -8071,17 +8083,17 @@
         <v>52</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="53" ht="16" customHeight="1" spans="1:6">
@@ -8089,17 +8101,17 @@
         <v>53</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="11" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="54" ht="16" customHeight="1" spans="1:6">
@@ -8107,17 +8119,17 @@
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="11" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55" ht="16" customHeight="1" spans="1:6">
@@ -8125,15 +8137,15 @@
         <v>55</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="11"/>
       <c r="F55" s="12" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="56" ht="16" customHeight="1" spans="1:6">
@@ -8141,10 +8153,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="11"/>
@@ -8157,23 +8169,23 @@
         <v>58</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="25" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>753</v>
-      </c>
-      <c r="G57" s="26" t="s">
         <v>754</v>
       </c>
+      <c r="G57" s="27" t="s">
+        <v>755</v>
+      </c>
       <c r="H57" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="58" ht="16" customHeight="1" spans="1:6">
@@ -8181,14 +8193,14 @@
         <v>59</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="11" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>623</v>
@@ -8199,17 +8211,17 @@
         <v>60</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="11" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="60" ht="16" customHeight="1" spans="1:6">
@@ -8217,17 +8229,17 @@
         <v>62</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="11" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="61" ht="16" customHeight="1" spans="1:6">
@@ -8235,17 +8247,17 @@
         <v>63</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="11" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="62" ht="16" customHeight="1" spans="1:6">
@@ -8253,17 +8265,17 @@
         <v>64</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="11" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="16" customHeight="1" spans="1:8">
@@ -8271,23 +8283,23 @@
         <v>65</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="25" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>697</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" ht="16" customHeight="1" spans="1:6">
@@ -8295,17 +8307,17 @@
         <v>66</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="11" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="65" ht="16" customHeight="1" spans="1:6">
@@ -8313,15 +8325,15 @@
         <v>68</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="11"/>
       <c r="F65" s="12" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="66" ht="16" customHeight="1" spans="1:6">
@@ -8329,20 +8341,20 @@
         <v>69</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="11"/>
       <c r="F66" s="12" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="67" s="2" customFormat="1" spans="2:7">
       <c r="B67" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>696</v>
@@ -8350,14 +8362,14 @@
     </row>
     <row r="68" s="2" customFormat="1" spans="2:7">
       <c r="B68" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" spans="6:6">
-      <c r="F69" s="26"/>
+      <c r="F69" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -8486,7 +8498,7 @@
     <hyperlink ref="F37" r:id="rId52" display="https://www.hapag-lloyd.com/en/home.html" tooltip="https://www.hapag-lloyd.com/en/home.html"/>
     <hyperlink ref="F36" r:id="rId53" display="http://www.mssco.net/Eip/Svc/wfCargoTracking.aspx" tooltip="http://www.mssco.net/Eip/Svc/wfCargoTracking.aspx"/>
     <hyperlink ref="F40" r:id="rId54" display="https://www.bahri.sa/Online-Services/Tracking.aspx?lang=en-US" tooltip="https://www.bahri.sa/Online-Services/Tracking.aspx?lang=en-US"/>
-    <hyperlink ref="F49" r:id="rId55" display="http://www.sinokor.co.kr/" tooltip="http://www.sinokor.co.kr/"/>
+    <hyperlink ref="F49" r:id="rId55" display="http://www.sinokor.co.kr/ " tooltip="http://www.sinokor.co.kr/ "/>
     <hyperlink ref="F50" r:id="rId56" display="https://my.sealand.com/" tooltip="https://my.sealand.com/"/>
     <hyperlink ref="F55" r:id="rId57" display="http://tassgroup.com/php/schedule_tracking.php?contentid=MjUw&amp;cnt_supm_id=MTQ3&amp;category_name=Customer%20Zone" tooltip="http://tassgroup.com/php/schedule_tracking.php?contentid=MjUw&amp;cnt_supm_id=MTQ3&amp;category_name=Customer%20Zone"/>
     <hyperlink ref="F56" r:id="rId15" display="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno=" tooltip="https://www.hapag-lloyd.cn/zh/online-business/tracing/tracing-by-booking.html?blno="/>
@@ -8497,8 +8509,9 @@
     <hyperlink ref="F63" r:id="rId62" display="http://www.zhonggushipping.com/index.jsp" tooltip="http://www.zhonggushipping.com/index.jsp"/>
     <hyperlink ref="G51" r:id="rId63" display="http://ebusiness.sinolines.com.cn/SnlEbusiness/TrackingCargoByBlno.aspx"/>
     <hyperlink ref="F69" r:id="rId64" tooltip="http://www.tslines.com/EN/ "/>
-    <hyperlink ref="G57" r:id="rId64" display="http://www.tslines.com/EN/ "/>
+    <hyperlink ref="G57" r:id="rId64" display="http://www.tslines.com/EN/ " tooltip="http://www.tslines.com/EN/ "/>
     <hyperlink ref="G8" r:id="rId65" display="官网修改链接 http://www.ckline.co.kr/  跳转链接http://es.ckline.co.kr/"/>
+    <hyperlink ref="G49" r:id="rId66" display="http://www.sinokor.co.kr/  修改 链接" tooltip="http://www.sinokor.co.kr/  修改 链接"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
